--- a/Finance Universe/COIN.xlsx
+++ b/Finance Universe/COIN.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.1.4\Alek\Documents\Money\Finance\Crypto Universe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\game\Documents\GitHub\finance\Finance Universe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46ED7501-B953-4F1E-976D-7750BACE6553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE7A34E0-1D40-45C7-A25D-50CE5A88F221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32130" yWindow="4545" windowWidth="14085" windowHeight="13815" xr2:uid="{C81AA0DA-4D8E-4469-A5C0-616BCC557FA4}"/>
+    <workbookView xWindow="-18120" yWindow="7395" windowWidth="24975" windowHeight="16200" xr2:uid="{C81AA0DA-4D8E-4469-A5C0-616BCC557FA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="121">
   <si>
     <t>Income Statement</t>
   </si>
@@ -419,6 +419,9 @@
   </si>
   <si>
     <t>main</t>
+  </si>
+  <si>
+    <t>Net cash</t>
   </si>
 </sst>
 </file>
@@ -1105,10 +1108,10 @@
   <dimension ref="A1:XFD102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="P56" sqref="P56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6087,7 +6090,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52D65FDA-9DF4-4A69-81DD-D0053D4F028D}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6144,15 +6149,22 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="3">
+        <f>C6-C7</f>
+        <v>2137919000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C9" s="4">
         <f>C5+C6-C7</f>
         <v>9898197373.1300049</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D9" s="3"/>
     </row>
   </sheetData>

--- a/Finance Universe/COIN.xlsx
+++ b/Finance Universe/COIN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\game\Documents\GitHub\finance\Finance Universe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE7A34E0-1D40-45C7-A25D-50CE5A88F221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DF73F32-DB89-488C-9FB5-B8AB230320B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18120" yWindow="7395" windowWidth="24975" windowHeight="16200" xr2:uid="{C81AA0DA-4D8E-4469-A5C0-616BCC557FA4}"/>
+    <workbookView xWindow="3930" yWindow="1260" windowWidth="30690" windowHeight="18585" xr2:uid="{C81AA0DA-4D8E-4469-A5C0-616BCC557FA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1107,11 +1107,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F29E218-F361-42D1-B1EF-0A66C045582E}">
   <dimension ref="A1:XFD102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P56" sqref="P56"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Finance Universe/COIN.xlsx
+++ b/Finance Universe/COIN.xlsx
@@ -8,16 +8,56 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\game\Documents\GitHub\finance\Finance Universe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECFEE1C1-7468-42B1-88D7-CF32A39C311E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{779F7A47-6861-4D13-AC32-4A651D134C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6900" yWindow="2580" windowWidth="30690" windowHeight="18585" activeTab="3" xr2:uid="{C81AA0DA-4D8E-4469-A5C0-616BCC557FA4}"/>
+    <workbookView xWindow="-120" yWindow="285" windowWidth="38640" windowHeight="20865" activeTab="3" xr2:uid="{C81AA0DA-4D8E-4469-A5C0-616BCC557FA4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="model" sheetId="1" r:id="rId1"/>
+    <sheet name="financials" sheetId="2" r:id="rId2"/>
+    <sheet name="notes" sheetId="3" r:id="rId3"/>
     <sheet name="data" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">data!$A$2:$A$457</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">data!$B$1</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">data!$F$2:$F$457</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">data!$G$1</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">data!$G$2:$G$457</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">data!$H$1</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">data!$H$2:$H$457</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">data!$I$1</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">data!$I$2:$I$457</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">data!$J$1</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">data!$J$2:$J$457</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">data!$A$2:$A$457</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">data!$B$2:$B$457</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">data!$B$1</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">data!$B$2:$B$457</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">data!$C$1</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">data!$C$2:$C$457</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">data!$D$1</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">data!$D$2:$D$457</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">data!$E$1</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">data!$E$2:$E$457</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">data!$F$1</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">data!$F$2:$F$457</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">data!$C$1</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">data!$G$1</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">data!$G$2:$G$457</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">data!$H$1</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">data!$H$2:$H$457</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">data!$I$1</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">data!$I$2:$I$457</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">data!$J$1</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">data!$J$2:$J$457</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">data!$C$2:$C$457</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">data!$D$1</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">data!$D$2:$D$457</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">data!$E$1</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">data!$E$2:$E$457</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">data!$F$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -74,7 +114,7 @@
       </extLst>
     </bk>
   </futureMetadata>
-  <futureMetadata name="XLRICHVALUE" count="2495">
+  <futureMetadata name="XLRICHVALUE" count="2501">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -17537,6 +17577,48 @@
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="2494"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2495"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2496"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2497"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2498"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2499"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2500"/>
         </ext>
       </extLst>
     </bk>
@@ -17546,7 +17628,7 @@
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
-  <valueMetadata count="2495">
+  <valueMetadata count="2501">
     <bk>
       <rc t="2" v="0"/>
     </bk>
@@ -25031,6 +25113,24 @@
     </bk>
     <bk>
       <rc t="2" v="2494"/>
+    </bk>
+    <bk>
+      <rc t="2" v="2495"/>
+    </bk>
+    <bk>
+      <rc t="2" v="2496"/>
+    </bk>
+    <bk>
+      <rc t="2" v="2497"/>
+    </bk>
+    <bk>
+      <rc t="2" v="2498"/>
+    </bk>
+    <bk>
+      <rc t="2" v="2499"/>
+    </bk>
+    <bk>
+      <rc t="2" v="2500"/>
     </bk>
   </valueMetadata>
 </metadata>
@@ -25829,7 +25929,7 @@
 
 <file path=xl/richData/rdarray.xml><?xml version="1.0" encoding="utf-8"?>
 <arrayData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="6">
-  <a r="1" c="456">
+  <a r="1" c="457">
     <v t="i">7730</v>
     <v t="i">7731</v>
     <v t="i">7732</v>
@@ -26286,8 +26386,9 @@
     <v t="i">8383</v>
     <v t="i">8384</v>
     <v t="i">8385</v>
+    <v t="i">8388</v>
   </a>
-  <a r="1" c="456">
+  <a r="1" c="457">
     <v>-99999901</v>
     <v>-99999901</v>
     <v>-99999901</v>
@@ -26744,8 +26845,9 @@
     <v>40.19</v>
     <v>37.979999999999997</v>
     <v>36.6</v>
+    <v>35.17</v>
   </a>
-  <a r="1" c="456">
+  <a r="1" c="457">
     <v>-99999901</v>
     <v>-99999901</v>
     <v>-99999901</v>
@@ -27202,8 +27304,9 @@
     <v>39.409999999999997</v>
     <v>38.950000000000003</v>
     <v>37.4</v>
+    <v>35.97</v>
   </a>
-  <a r="1" c="456">
+  <a r="1" c="457">
     <v>-99999901</v>
     <v>-99999901</v>
     <v>-99999901</v>
@@ -27660,8 +27763,9 @@
     <v>41.9</v>
     <v>39.6</v>
     <v>38.01</v>
+    <v>36.68</v>
   </a>
-  <a r="1" c="456">
+  <a r="1" c="457">
     <v>-99999901</v>
     <v>-99999901</v>
     <v>-99999901</v>
@@ -28118,8 +28222,9 @@
     <v>38.82</v>
     <v>37.44</v>
     <v>34.71</v>
+    <v>34.51</v>
   </a>
-  <a r="1" c="456">
+  <a r="1" c="457">
     <v>-99999901</v>
     <v>-99999901</v>
     <v>-99999901</v>
@@ -28576,12 +28681,13 @@
     <v>16117596</v>
     <v>12013423</v>
     <v>18247429</v>
+    <v>11168297</v>
   </a>
 </arrayData>
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2496">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2502">
   <rv s="0">
     <fb>44256</fb>
     <v>0</v>
@@ -38561,6 +38667,30 @@
   </rv>
   <rv s="0">
     <fb>18247429</fb>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <fb>44914</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>35.17</fb>
+    <v>1</v>
+  </rv>
+  <rv s="0">
+    <fb>35.97</fb>
+    <v>1</v>
+  </rv>
+  <rv s="0">
+    <fb>36.68</fb>
+    <v>1</v>
+  </rv>
+  <rv s="0">
+    <fb>34.51</fb>
+    <v>1</v>
+  </rv>
+  <rv s="0">
+    <fb>11168297</fb>
     <v>2</v>
   </rv>
   <rv s="2">
@@ -38568,10 +38698,10 @@
     <v>COIN</v>
     <v>Daily</v>
     <v>36526</v>
-    <v>44914</v>
+    <v>44915</v>
     <v>0</v>
     <v>1</v>
-    <v>638067456000000000,638070556827113940,0</v>
+    <v>638070048000000000,638071461480990804,0</v>
     <v>0</v>
     <v>bzu86h</v>
     <v>XNAS:COIN</v>
@@ -43974,7 +44104,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44165,13 +44295,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9FDDA25-D45D-48E3-9E7E-B139C736241F}">
-  <dimension ref="A1:J457"/>
+  <dimension ref="A1:J458"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L46" sqref="L46"/>
+      <selection pane="bottomRight" activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44183,7 +44313,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="str" cm="1">
-        <f t="array" aca="1" ref="A1:F457" ca="1">_xlfn.STOCKHISTORY("COIN", "1-1-2000", TODAY(), 0,1,0,1,2,3,4,5)</f>
+        <f t="array" aca="1" ref="A1:F458" ca="1">_xlfn.STOCKHISTORY("COIN", "1-1-2000", TODAY(), 0,1,0,1,2,3,4,5)</f>
         <v>Date</v>
       </c>
       <c r="B1" t="str">
@@ -62885,6 +63015,32 @@
         <v>12.135922330097074</v>
       </c>
     </row>
+    <row r="458" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A458" vm="2496">
+        <f ca="1"/>
+        <v>44914</v>
+      </c>
+      <c r="B458" vm="2497">
+        <f ca="1"/>
+        <v>35.17</v>
+      </c>
+      <c r="C458" vm="2498">
+        <f ca="1"/>
+        <v>35.97</v>
+      </c>
+      <c r="D458" vm="2499">
+        <f ca="1"/>
+        <v>36.68</v>
+      </c>
+      <c r="E458" vm="2500">
+        <f ca="1"/>
+        <v>34.51</v>
+      </c>
+      <c r="F458" vm="2501">
+        <f ca="1"/>
+        <v>11168297</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
